--- a/contratos/contratos-5-2018.xlsx
+++ b/contratos/contratos-5-2018.xlsx
@@ -919,7 +919,7 @@
     <t>A. ROPELATO S.R.L.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>BENEDETTI MIGUEL ANGEL</t>
@@ -1003,7 +1003,7 @@
     <t>STECKLEIN MARIA RAQUEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1165,7 +1165,7 @@
     <t>RADIO Y TELEVISION ARGENTINA S.E.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>ROMERO ELIO RAFAEL</t>
@@ -1228,7 +1228,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>CHALLIOL MARIA ELVIRA</t>
@@ -1348,7 +1348,7 @@
     <t>GARRIGUE JOSE LUIS</t>
   </si>
   <si>
-    <t>NEYRA, ELISEO FELIX</t>
+    <t>NEYRA. ELISEO FELIX</t>
   </si>
   <si>
     <t>DERUDDER HNOS S.R.L.</t>
@@ -1357,7 +1357,7 @@
     <t>GANGALE FRANCISCO ARMANDO</t>
   </si>
   <si>
-    <t>LUGRIN, RICARDO JOSE</t>
+    <t>LUGRIN. RICARDO JOSE</t>
   </si>
   <si>
     <t>ROUDE SILVIA RAQUEL</t>
@@ -1771,703 +1771,703 @@
     <t>20</t>
   </si>
   <si>
-    <t>1.900,00</t>
-  </si>
-  <si>
-    <t>1.790,00</t>
-  </si>
-  <si>
-    <t>158.000,00</t>
-  </si>
-  <si>
-    <t>332.750,00</t>
-  </si>
-  <si>
-    <t>495.000,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>717.826,20</t>
-  </si>
-  <si>
-    <t>3.210,00</t>
-  </si>
-  <si>
-    <t>9.438,00</t>
-  </si>
-  <si>
-    <t>90.750,00</t>
-  </si>
-  <si>
-    <t>7.700,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>488.400,00</t>
-  </si>
-  <si>
-    <t>666.967,83</t>
-  </si>
-  <si>
-    <t>96.675,00</t>
-  </si>
-  <si>
-    <t>235.934,10</t>
-  </si>
-  <si>
-    <t>20.632,50</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>65.352,00</t>
-  </si>
-  <si>
-    <t>405,00</t>
-  </si>
-  <si>
-    <t>85.393,50</t>
-  </si>
-  <si>
-    <t>623,00</t>
-  </si>
-  <si>
-    <t>96.000,00</t>
-  </si>
-  <si>
-    <t>56.430,00</t>
-  </si>
-  <si>
-    <t>22.786,62</t>
-  </si>
-  <si>
-    <t>18.860,00</t>
-  </si>
-  <si>
-    <t>10.360,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>392,00</t>
-  </si>
-  <si>
-    <t>25.500,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>24.500,00</t>
-  </si>
-  <si>
-    <t>960,40</t>
-  </si>
-  <si>
-    <t>398.430,08</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>102,49</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>31.600,00</t>
-  </si>
-  <si>
-    <t>835,60</t>
-  </si>
-  <si>
-    <t>94,00</t>
-  </si>
-  <si>
-    <t>17.955,51</t>
-  </si>
-  <si>
-    <t>72.930,00</t>
-  </si>
-  <si>
-    <t>687.960,00</t>
-  </si>
-  <si>
-    <t>37.581,52</t>
-  </si>
-  <si>
-    <t>4.329,54</t>
-  </si>
-  <si>
-    <t>213.900,00</t>
-  </si>
-  <si>
-    <t>399,00</t>
-  </si>
-  <si>
-    <t>48.227,64</t>
-  </si>
-  <si>
-    <t>3.248,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>5.150,00</t>
-  </si>
-  <si>
-    <t>419,18</t>
-  </si>
-  <si>
-    <t>24.649,96</t>
-  </si>
-  <si>
-    <t>126.500,00</t>
-  </si>
-  <si>
-    <t>480,20</t>
-  </si>
-  <si>
-    <t>1.159,00</t>
-  </si>
-  <si>
-    <t>149,72</t>
-  </si>
-  <si>
-    <t>13,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>3.815,00</t>
-  </si>
-  <si>
-    <t>9.200,00</t>
-  </si>
-  <si>
-    <t>13.422,24</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>1.312,00</t>
-  </si>
-  <si>
-    <t>79.685,00</t>
-  </si>
-  <si>
-    <t>24,90</t>
-  </si>
-  <si>
-    <t>1.158,21</t>
-  </si>
-  <si>
-    <t>7.987,00</t>
-  </si>
-  <si>
-    <t>7.632,16</t>
-  </si>
-  <si>
-    <t>7.695,60</t>
-  </si>
-  <si>
-    <t>14.740,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>57.500,00</t>
-  </si>
-  <si>
-    <t>3.145,00</t>
-  </si>
-  <si>
-    <t>726,00</t>
-  </si>
-  <si>
-    <t>744,84</t>
-  </si>
-  <si>
-    <t>311,40</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>7.150,00</t>
-  </si>
-  <si>
-    <t>10.250,00</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>6.409,70</t>
-  </si>
-  <si>
-    <t>8.625,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>1.080,00</t>
-  </si>
-  <si>
-    <t>765,00</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>11.230,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.925,00</t>
-  </si>
-  <si>
-    <t>442,89</t>
-  </si>
-  <si>
-    <t>3.897,00</t>
-  </si>
-  <si>
-    <t>545,41</t>
-  </si>
-  <si>
-    <t>43,00</t>
-  </si>
-  <si>
-    <t>20.170,94</t>
-  </si>
-  <si>
-    <t>19.877,75</t>
-  </si>
-  <si>
-    <t>2.930,00</t>
-  </si>
-  <si>
-    <t>49.840,00</t>
-  </si>
-  <si>
-    <t>2.478,00</t>
-  </si>
-  <si>
-    <t>1.568,00</t>
-  </si>
-  <si>
-    <t>146,00</t>
-  </si>
-  <si>
-    <t>11.419,00</t>
-  </si>
-  <si>
-    <t>7.498,00</t>
-  </si>
-  <si>
-    <t>39.824,40</t>
-  </si>
-  <si>
-    <t>1.694,78</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>199,50</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>5.030,00</t>
-  </si>
-  <si>
-    <t>10.300,00</t>
-  </si>
-  <si>
-    <t>1.263,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>33.900,00</t>
-  </si>
-  <si>
-    <t>66.020,00</t>
-  </si>
-  <si>
-    <t>25.533,00</t>
-  </si>
-  <si>
-    <t>9.469,00</t>
-  </si>
-  <si>
-    <t>6.540,00</t>
-  </si>
-  <si>
-    <t>35.428,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>2.168,30</t>
-  </si>
-  <si>
-    <t>873,90</t>
-  </si>
-  <si>
-    <t>16.409,98</t>
-  </si>
-  <si>
-    <t>248,45</t>
-  </si>
-  <si>
-    <t>1.639,00</t>
-  </si>
-  <si>
-    <t>3.624,35</t>
-  </si>
-  <si>
-    <t>4.800.000,00</t>
-  </si>
-  <si>
-    <t>25.805,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>25.116,58</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>8.508,50</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>24.860,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>9.910,00</t>
-  </si>
-  <si>
-    <t>39.740,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>9.130,00</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>162.500,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>234.550,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>2.204,00</t>
-  </si>
-  <si>
-    <t>4.848,00</t>
-  </si>
-  <si>
-    <t>30.682,10</t>
-  </si>
-  <si>
-    <t>18.365,00</t>
-  </si>
-  <si>
-    <t>139,00</t>
-  </si>
-  <si>
-    <t>16.720,00</t>
-  </si>
-  <si>
-    <t>3.447,00</t>
-  </si>
-  <si>
-    <t>957,56</t>
-  </si>
-  <si>
-    <t>8.835,00</t>
-  </si>
-  <si>
-    <t>4.100,50</t>
-  </si>
-  <si>
-    <t>5.616,06</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>1.010,20</t>
-  </si>
-  <si>
-    <t>1.704,00</t>
-  </si>
-  <si>
-    <t>220,00</t>
-  </si>
-  <si>
-    <t>36.834,68</t>
-  </si>
-  <si>
-    <t>1.802,12</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>28.342,00</t>
-  </si>
-  <si>
-    <t>6.201,04</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>59,74</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>156,74</t>
-  </si>
-  <si>
-    <t>7.081,64</t>
-  </si>
-  <si>
-    <t>82.800,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>77.700,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>64.500,00</t>
-  </si>
-  <si>
-    <t>15.802,70</t>
-  </si>
-  <si>
-    <t>4.413.721,18</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>14.400,00</t>
-  </si>
-  <si>
-    <t>150.500,00</t>
-  </si>
-  <si>
-    <t>159.500,00</t>
-  </si>
-  <si>
-    <t>152.750,00</t>
-  </si>
-  <si>
-    <t>269.500,00</t>
-  </si>
-  <si>
-    <t>337.500,00</t>
-  </si>
-  <si>
-    <t>394.500,00</t>
-  </si>
-  <si>
-    <t>167.500,00</t>
-  </si>
-  <si>
-    <t>388.500,00</t>
-  </si>
-  <si>
-    <t>275.687,50</t>
-  </si>
-  <si>
-    <t>278.000,00</t>
-  </si>
-  <si>
-    <t>155.250,00</t>
-  </si>
-  <si>
-    <t>264.823,00</t>
-  </si>
-  <si>
-    <t>1.036.654,62</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>256.224,48</t>
-  </si>
-  <si>
-    <t>155.800,00</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>77.850,00</t>
-  </si>
-  <si>
-    <t>86.230,00</t>
-  </si>
-  <si>
-    <t>264.000,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>1.551.000,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>5.800,00</t>
-  </si>
-  <si>
-    <t>4.409,31</t>
-  </si>
-  <si>
-    <t>8.668,44</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>12.155,00</t>
-  </si>
-  <si>
-    <t>170.856,00</t>
-  </si>
-  <si>
-    <t>2.880,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
+    <t>1900.00</t>
+  </si>
+  <si>
+    <t>1790.00</t>
+  </si>
+  <si>
+    <t>158000.00</t>
+  </si>
+  <si>
+    <t>332750.00</t>
+  </si>
+  <si>
+    <t>495000.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>717826.20</t>
+  </si>
+  <si>
+    <t>3210.00</t>
+  </si>
+  <si>
+    <t>9438.00</t>
+  </si>
+  <si>
+    <t>90750.00</t>
+  </si>
+  <si>
+    <t>7700.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>488400.00</t>
+  </si>
+  <si>
+    <t>666967.83</t>
+  </si>
+  <si>
+    <t>96675.00</t>
+  </si>
+  <si>
+    <t>235934.10</t>
+  </si>
+  <si>
+    <t>20632.50</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>65352.00</t>
+  </si>
+  <si>
+    <t>405.00</t>
+  </si>
+  <si>
+    <t>85393.50</t>
+  </si>
+  <si>
+    <t>623.00</t>
+  </si>
+  <si>
+    <t>96000.00</t>
+  </si>
+  <si>
+    <t>56430.00</t>
+  </si>
+  <si>
+    <t>22786.62</t>
+  </si>
+  <si>
+    <t>18860.00</t>
+  </si>
+  <si>
+    <t>10360.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>392.00</t>
+  </si>
+  <si>
+    <t>25500.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>24500.00</t>
+  </si>
+  <si>
+    <t>960.40</t>
+  </si>
+  <si>
+    <t>398430.08</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>102.49</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>31600.00</t>
+  </si>
+  <si>
+    <t>835.60</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>17955.51</t>
+  </si>
+  <si>
+    <t>72930.00</t>
+  </si>
+  <si>
+    <t>687960.00</t>
+  </si>
+  <si>
+    <t>37581.52</t>
+  </si>
+  <si>
+    <t>4329.54</t>
+  </si>
+  <si>
+    <t>213900.00</t>
+  </si>
+  <si>
+    <t>399.00</t>
+  </si>
+  <si>
+    <t>48227.64</t>
+  </si>
+  <si>
+    <t>3248.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>5150.00</t>
+  </si>
+  <si>
+    <t>419.18</t>
+  </si>
+  <si>
+    <t>24649.96</t>
+  </si>
+  <si>
+    <t>126500.00</t>
+  </si>
+  <si>
+    <t>480.20</t>
+  </si>
+  <si>
+    <t>1159.00</t>
+  </si>
+  <si>
+    <t>149.72</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>3815.00</t>
+  </si>
+  <si>
+    <t>9200.00</t>
+  </si>
+  <si>
+    <t>13422.24</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>1312.00</t>
+  </si>
+  <si>
+    <t>79685.00</t>
+  </si>
+  <si>
+    <t>24.90</t>
+  </si>
+  <si>
+    <t>1158.21</t>
+  </si>
+  <si>
+    <t>7987.00</t>
+  </si>
+  <si>
+    <t>7632.16</t>
+  </si>
+  <si>
+    <t>7695.60</t>
+  </si>
+  <si>
+    <t>14740.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>57500.00</t>
+  </si>
+  <si>
+    <t>3145.00</t>
+  </si>
+  <si>
+    <t>726.00</t>
+  </si>
+  <si>
+    <t>744.84</t>
+  </si>
+  <si>
+    <t>311.40</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>7150.00</t>
+  </si>
+  <si>
+    <t>10250.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>6409.70</t>
+  </si>
+  <si>
+    <t>8625.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>1080.00</t>
+  </si>
+  <si>
+    <t>765.00</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>11230.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1925.00</t>
+  </si>
+  <si>
+    <t>442.89</t>
+  </si>
+  <si>
+    <t>3897.00</t>
+  </si>
+  <si>
+    <t>545.41</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>20170.94</t>
+  </si>
+  <si>
+    <t>19877.75</t>
+  </si>
+  <si>
+    <t>2930.00</t>
+  </si>
+  <si>
+    <t>49840.00</t>
+  </si>
+  <si>
+    <t>2478.00</t>
+  </si>
+  <si>
+    <t>1568.00</t>
+  </si>
+  <si>
+    <t>146.00</t>
+  </si>
+  <si>
+    <t>11419.00</t>
+  </si>
+  <si>
+    <t>7498.00</t>
+  </si>
+  <si>
+    <t>39824.40</t>
+  </si>
+  <si>
+    <t>1694.78</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>199.50</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>5030.00</t>
+  </si>
+  <si>
+    <t>10300.00</t>
+  </si>
+  <si>
+    <t>1263.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>33900.00</t>
+  </si>
+  <si>
+    <t>66020.00</t>
+  </si>
+  <si>
+    <t>25533.00</t>
+  </si>
+  <si>
+    <t>9469.00</t>
+  </si>
+  <si>
+    <t>6540.00</t>
+  </si>
+  <si>
+    <t>35428.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>2168.30</t>
+  </si>
+  <si>
+    <t>873.90</t>
+  </si>
+  <si>
+    <t>16409.98</t>
+  </si>
+  <si>
+    <t>248.45</t>
+  </si>
+  <si>
+    <t>1639.00</t>
+  </si>
+  <si>
+    <t>3624.35</t>
+  </si>
+  <si>
+    <t>4800000.00</t>
+  </si>
+  <si>
+    <t>25805.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>25116.58</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>8508.50</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>24860.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>9910.00</t>
+  </si>
+  <si>
+    <t>39740.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>9130.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>162500.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>234550.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>2204.00</t>
+  </si>
+  <si>
+    <t>4848.00</t>
+  </si>
+  <si>
+    <t>30682.10</t>
+  </si>
+  <si>
+    <t>18365.00</t>
+  </si>
+  <si>
+    <t>139.00</t>
+  </si>
+  <si>
+    <t>16720.00</t>
+  </si>
+  <si>
+    <t>3447.00</t>
+  </si>
+  <si>
+    <t>957.56</t>
+  </si>
+  <si>
+    <t>8835.00</t>
+  </si>
+  <si>
+    <t>4100.50</t>
+  </si>
+  <si>
+    <t>5616.06</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>1010.20</t>
+  </si>
+  <si>
+    <t>1704.00</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>36834.68</t>
+  </si>
+  <si>
+    <t>1802.12</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>28342.00</t>
+  </si>
+  <si>
+    <t>6201.04</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>59.74</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>156.74</t>
+  </si>
+  <si>
+    <t>7081.64</t>
+  </si>
+  <si>
+    <t>82800.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>77700.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>64500.00</t>
+  </si>
+  <si>
+    <t>15802.70</t>
+  </si>
+  <si>
+    <t>4413721.18</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>14400.00</t>
+  </si>
+  <si>
+    <t>150500.00</t>
+  </si>
+  <si>
+    <t>159500.00</t>
+  </si>
+  <si>
+    <t>152750.00</t>
+  </si>
+  <si>
+    <t>269500.00</t>
+  </si>
+  <si>
+    <t>337500.00</t>
+  </si>
+  <si>
+    <t>394500.00</t>
+  </si>
+  <si>
+    <t>167500.00</t>
+  </si>
+  <si>
+    <t>388500.00</t>
+  </si>
+  <si>
+    <t>275687.50</t>
+  </si>
+  <si>
+    <t>278000.00</t>
+  </si>
+  <si>
+    <t>155250.00</t>
+  </si>
+  <si>
+    <t>264823.00</t>
+  </si>
+  <si>
+    <t>1036654.62</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>256224.48</t>
+  </si>
+  <si>
+    <t>155800.00</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>77850.00</t>
+  </si>
+  <si>
+    <t>86230.00</t>
+  </si>
+  <si>
+    <t>264000.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>1551000.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>5800.00</t>
+  </si>
+  <si>
+    <t>4409.31</t>
+  </si>
+  <si>
+    <t>8668.44</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>12155.00</t>
+  </si>
+  <si>
+    <t>170856.00</t>
+  </si>
+  <si>
+    <t>2880.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
   </si>
 </sst>
 </file>
